--- a/ResultadoEleicoesDistritos/SANTARÉM_ALPIARÇA.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_ALPIARÇA.xlsx
@@ -597,64 +597,64 @@
         <v>1887</v>
       </c>
       <c r="H2" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J2" t="n">
-        <v>728</v>
+        <v>773</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N2" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
+        <v>13</v>
+      </c>
+      <c r="S2" t="n">
+        <v>104</v>
+      </c>
+      <c r="T2" t="n">
+        <v>163</v>
+      </c>
+      <c r="U2" t="n">
         <v>10</v>
       </c>
-      <c r="S2" t="n">
-        <v>75</v>
-      </c>
-      <c r="T2" t="n">
-        <v>129</v>
-      </c>
-      <c r="U2" t="n">
-        <v>15</v>
-      </c>
       <c r="V2" t="n">
-        <v>1201</v>
+        <v>1176</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1261</v>
+        <v>1196</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
